--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-14T06:06:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8988,7 +8988,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:06:47+00:00</t>
+    <t>2023-02-14T06:14:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:37+00:00</t>
+    <t>2023-02-14T06:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:44+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -969,10 +972,6 @@
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
   </si>
   <si>
-    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
     <t>{no mapping
 NOTE: This is a list of contained Request-Event tuples!}</t>
   </si>
@@ -1033,10 +1032,7 @@
     <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
   </si>
   <si>
-    <t>Identifies the results of the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-careplan-outcome</t>
   </si>
   <si>
     <t>CarePlan.activity.outcomeReference</t>
@@ -1375,7 +1371,17 @@
     <t>Allows prompting for activities and detection of missed planned activities.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>TQ1</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x]:scheduledPeriod</t>
+  </si>
+  <si>
+    <t>scheduledPeriod</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.location</t>
@@ -1441,10 +1447,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
   </si>
   <si>
     <t>closed</t>
@@ -1656,6 +1658,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1832,7 +1849,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2004,7 +2021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2116,7 +2133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2230,7 +2247,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2342,7 +2359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2456,7 +2473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2570,7 +2587,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2684,7 +2701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2798,7 +2815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2912,7 +2929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -3028,7 +3045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -3144,7 +3161,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -3256,7 +3273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
@@ -3370,7 +3387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>165</v>
       </c>
@@ -3484,7 +3501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>172</v>
       </c>
@@ -3600,7 +3617,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>179</v>
       </c>
@@ -3714,7 +3731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>183</v>
       </c>
@@ -3830,7 +3847,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>194</v>
       </c>
@@ -3946,7 +3963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>202</v>
       </c>
@@ -4062,7 +4079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>212</v>
       </c>
@@ -4174,7 +4191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>216</v>
       </c>
@@ -4288,7 +4305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>221</v>
       </c>
@@ -4400,7 +4417,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>230</v>
       </c>
@@ -4514,7 +4531,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>239</v>
       </c>
@@ -4630,7 +4647,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>250</v>
       </c>
@@ -4742,7 +4759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>258</v>
       </c>
@@ -4856,7 +4873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>265</v>
       </c>
@@ -4970,7 +4987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>269</v>
       </c>
@@ -5084,7 +5101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>276</v>
       </c>
@@ -5200,7 +5217,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>286</v>
       </c>
@@ -5316,7 +5333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>293</v>
       </c>
@@ -5432,7 +5449,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>301</v>
       </c>
@@ -5531,27 +5548,27 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5577,10 +5594,10 @@
         <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5631,7 +5648,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5649,21 +5666,21 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5692,7 +5709,7 @@
         <v>134</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>136</v>
@@ -5745,7 +5762,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5763,7 +5780,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5772,16 +5789,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5803,10 +5820,10 @@
         <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>136</v>
@@ -5861,7 +5878,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5888,12 +5905,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5919,13 +5936,13 @@
         <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5951,13 +5968,11 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -5975,7 +5990,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6002,12 +6017,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6033,16 +6048,16 @@
         <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6091,7 +6106,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6106,24 +6121,24 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6146,19 +6161,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6207,7 +6222,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6225,21 +6240,21 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6262,19 +6277,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6323,7 +6338,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6332,16 +6347,16 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6350,12 +6365,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6381,14 +6396,14 @@
         <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6437,7 +6452,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6446,16 +6461,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6464,12 +6479,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6495,10 +6510,10 @@
         <v>213</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6549,7 +6564,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6567,7 +6582,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6576,12 +6591,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6607,10 +6622,10 @@
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6649,17 +6664,17 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6686,15 +6701,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>80</v>
@@ -6716,13 +6731,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6773,7 +6788,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6782,7 +6797,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>138</v>
@@ -6800,16 +6815,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6831,10 +6846,10 @@
         <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>136</v>
@@ -6889,7 +6904,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6916,12 +6931,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6947,14 +6962,14 @@
         <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6964,7 +6979,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -6982,10 +6997,10 @@
         <v>188</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7003,7 +7018,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7021,7 +7036,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7030,12 +7045,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7058,17 +7073,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7117,7 +7132,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7144,12 +7159,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7178,13 +7193,13 @@
         <v>161</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>163</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7233,7 +7248,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7260,12 +7275,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7291,16 +7306,16 @@
         <v>203</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7329,7 +7344,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7347,7 +7362,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7362,24 +7377,24 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AL48" t="s" s="2">
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7405,13 +7420,13 @@
         <v>203</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7440,10 +7455,10 @@
         <v>208</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7461,7 +7476,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7476,7 +7491,7 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7488,12 +7503,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7516,16 +7531,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7575,7 +7590,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7602,12 +7617,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7633,14 +7648,14 @@
         <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7689,7 +7704,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7716,12 +7731,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7747,16 +7762,16 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7784,10 +7799,10 @@
         <v>188</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7805,7 +7820,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
@@ -7820,24 +7835,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL52" t="s" s="2">
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="B53" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7863,13 +7878,13 @@
         <v>203</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7919,7 +7934,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7934,7 +7949,7 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7946,12 +7961,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7974,26 +7989,26 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="R54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8037,7 +8052,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8052,24 +8067,24 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8092,17 +8107,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8139,19 +8154,17 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8175,17 +8188,19 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
         <v>436</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="B56" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8197,7 +8212,7 @@
         <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8206,19 +8221,17 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>438</v>
+        <v>241</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8267,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8282,24 +8295,24 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>443</v>
+        <v>247</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8310,7 +8323,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8322,19 +8335,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8383,13 +8396,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8398,24 +8411,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8423,10 +8436,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8438,16 +8451,20 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>203</v>
+        <v>447</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8471,35 +8488,37 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8508,28 +8527,26 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8553,10 +8570,10 @@
         <v>203</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8586,28 +8603,26 @@
         <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8634,20 +8649,22 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="D60" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>87</v>
@@ -8662,18 +8679,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>466</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8697,13 +8712,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8721,7 +8736,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8739,25 +8754,25 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8779,13 +8794,15 @@
         <v>466</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8833,7 +8850,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8851,21 +8868,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8888,13 +8905,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>213</v>
+        <v>466</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8945,7 +8962,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8963,21 +8980,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>342</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9000,18 +9017,16 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>484</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9059,13 +9074,13 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
@@ -9074,19 +9089,151 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>342</v>
+      <c r="AL64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN64">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI63">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T11:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:58+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:24+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is to record prescribed ARV regimen against a given therapeutic line</t>
+    <t>This profile is to record prescribed ARV regimen against a given therapeutic line.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1153,6 +1153,9 @@
   </si>
   <si>
     <t>ART Regimen Line</t>
+  </si>
+  <si>
+    <t>Therapeutic lines that are used to classify the patient's currently prescribed ARV regimen.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -6737,7 +6740,7 @@
         <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6797,7 +6800,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>138</v>
@@ -6817,10 +6820,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6933,10 +6936,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6962,14 +6965,14 @@
         <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6979,7 +6982,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -6997,10 +7000,10 @@
         <v>188</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7018,7 +7021,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7036,7 +7039,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7047,10 +7050,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7073,17 +7076,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7132,7 +7135,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7161,10 +7164,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7193,13 +7196,13 @@
         <v>161</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>163</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7248,7 +7251,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7277,10 +7280,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7306,16 +7309,16 @@
         <v>203</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7344,7 +7347,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7362,7 +7365,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7377,24 +7380,24 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7420,13 +7423,13 @@
         <v>203</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7455,10 +7458,10 @@
         <v>208</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7476,7 +7479,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7491,7 +7494,7 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7505,10 +7508,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7531,16 +7534,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7590,7 +7593,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7619,10 +7622,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7648,14 +7651,14 @@
         <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7704,7 +7707,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7733,10 +7736,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7762,16 +7765,16 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7799,10 +7802,10 @@
         <v>188</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7820,7 +7823,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
@@ -7835,24 +7838,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7878,13 +7881,13 @@
         <v>203</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7934,7 +7937,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7949,7 +7952,7 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7963,10 +7966,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7989,70 +7992,70 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8067,10 +8070,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8081,10 +8084,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8107,17 +8110,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8154,7 +8157,7 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
@@ -8164,7 +8167,7 @@
         <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8188,18 +8191,18 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
@@ -8224,14 +8227,14 @@
         <v>241</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8280,7 +8283,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8304,15 +8307,15 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8335,19 +8338,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8396,7 +8399,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8414,21 +8417,21 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8451,19 +8454,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8512,7 +8515,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8527,24 +8530,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8570,10 +8573,10 @@
         <v>203</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8603,26 +8606,26 @@
         <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8640,24 +8643,24 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
@@ -8682,10 +8685,10 @@
         <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8715,10 +8718,10 @@
         <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8736,7 +8739,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8754,25 +8757,25 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8791,17 +8794,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8850,7 +8853,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8868,21 +8871,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8905,13 +8908,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8962,7 +8965,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8980,21 +8983,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9020,10 +9023,10 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9074,7 +9077,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9092,7 +9095,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9103,10 +9106,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9132,14 +9135,14 @@
         <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9188,7 +9191,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9203,7 +9206,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>339</v>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1440,6 +1440,10 @@
     <t>CarePlan.activity.detail.product[x]</t>
   </si>
   <si>
+    <t>CodeableConcept
+Reference(Medication|Substance)</t>
+  </si>
+  <si>
     <t>What is to be administered/supplied</t>
   </si>
   <si>
@@ -1452,9 +1456,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>.participation[typeCode=PRD].role</t>
   </si>
   <si>
@@ -1465,6 +1466,9 @@
   </si>
   <si>
     <t>productCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-arv-regimen</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.dailyAmount</t>
@@ -8555,7 +8559,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
@@ -8570,13 +8574,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>203</v>
+        <v>456</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8606,10 +8610,10 @@
         <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8622,7 +8626,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>460</v>
+        <v>359</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>455</v>
@@ -8667,7 +8671,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>87</v>
@@ -8685,10 +8689,10 @@
         <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8715,13 +8719,11 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8768,14 +8770,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8794,17 +8796,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8853,7 +8855,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8871,21 +8873,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8908,13 +8910,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8965,7 +8967,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8983,21 +8985,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9023,10 +9025,10 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9077,7 +9079,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9095,7 +9097,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9106,10 +9108,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9135,14 +9137,14 @@
         <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9191,7 +9193,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9206,7 +9208,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>339</v>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5931,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6723,13 +6723,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -6957,7 +6957,7 @@
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7301,7 +7301,7 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -8219,7 +8219,7 @@
         <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8677,7 +8677,7 @@
         <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>

--- a/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
